--- a/experiment_results/20201127_AGGREGATION_STDEV_NORMALIZATION1/ExamDB/4wise/0.95_.xlsx
+++ b/experiment_results/20201127_AGGREGATION_STDEV_NORMALIZATION1/ExamDB/4wise/0.95_.xlsx
@@ -612,19 +612,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -650,19 +650,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -688,19 +688,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -963,10 +963,10 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>168</v>
@@ -1258,19 +1258,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -1448,19 +1448,19 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -1524,7 +1524,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -1533,10 +1533,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -1562,19 +1562,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -1942,19 +1942,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -2360,19 +2360,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -2512,19 +2512,19 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -2601,19 +2601,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -2639,19 +2639,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -2677,19 +2677,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -3247,19 +3247,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -3370,10 +3370,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -3437,19 +3437,19 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -3513,7 +3513,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -3522,10 +3522,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -3551,19 +3551,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -3931,19 +3931,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -4349,19 +4349,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -4501,19 +4501,19 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -4590,19 +4590,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -4628,19 +4628,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -4666,19 +4666,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -5236,19 +5236,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -5359,10 +5359,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -5426,19 +5426,19 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -5502,7 +5502,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -5511,10 +5511,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -5540,19 +5540,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -5920,19 +5920,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -6338,19 +6338,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -6490,19 +6490,19 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -6579,19 +6579,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -6617,19 +6617,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -6655,19 +6655,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -7225,19 +7225,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -7348,10 +7348,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -7415,19 +7415,19 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -7491,7 +7491,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -7500,10 +7500,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -7529,19 +7529,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -7909,19 +7909,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -8327,19 +8327,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -8479,19 +8479,19 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -8568,19 +8568,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -8606,19 +8606,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -8644,19 +8644,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -9214,19 +9214,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -9337,10 +9337,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -9404,19 +9404,19 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -9480,7 +9480,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -9489,10 +9489,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -9518,19 +9518,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -9898,19 +9898,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -10316,19 +10316,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -10468,19 +10468,19 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -10557,19 +10557,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -10595,19 +10595,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -10633,19 +10633,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -11203,19 +11203,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -11326,10 +11326,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -11402,10 +11402,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -11469,7 +11469,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -11478,10 +11478,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -11507,19 +11507,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -11887,19 +11887,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -12305,19 +12305,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -12457,10 +12457,10 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -12546,19 +12546,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -12584,19 +12584,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -12622,19 +12622,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -13192,19 +13192,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -13315,10 +13315,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -13382,19 +13382,19 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -13458,7 +13458,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -13467,10 +13467,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -13496,19 +13496,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -13876,19 +13876,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -14294,19 +14294,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -14446,19 +14446,19 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -14535,7 +14535,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -14544,7 +14544,7 @@
         <v>34</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -14573,19 +14573,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -14611,19 +14611,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -14886,10 +14886,10 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G11">
         <v>168</v>
@@ -15190,10 +15190,10 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -15304,7 +15304,7 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F22">
         <v>12</v>
@@ -15380,7 +15380,7 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -15447,19 +15447,19 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -15485,7 +15485,7 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -15494,10 +15494,10 @@
         <v>9</v>
       </c>
       <c r="E27">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F27">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -15865,19 +15865,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F37">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -16444,10 +16444,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F52">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -16524,16 +16524,16 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -16562,19 +16562,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -16600,19 +16600,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -16875,10 +16875,10 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11">
         <v>168</v>
@@ -17170,19 +17170,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -17293,10 +17293,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="F22">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -17369,10 +17369,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F24">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -17436,7 +17436,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -17445,10 +17445,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -17474,16 +17474,16 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -17854,19 +17854,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -18272,19 +18272,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -18424,19 +18424,19 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -18513,19 +18513,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -18551,19 +18551,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -18589,19 +18589,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -19159,19 +19159,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -19282,10 +19282,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -19349,19 +19349,19 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -19425,7 +19425,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -19434,10 +19434,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -19463,19 +19463,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -19843,19 +19843,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -20261,19 +20261,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -20413,19 +20413,19 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -20502,19 +20502,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -20540,19 +20540,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -20578,19 +20578,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -21148,19 +21148,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -21271,10 +21271,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -21338,19 +21338,19 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -21414,7 +21414,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -21423,10 +21423,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -21452,19 +21452,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -21832,19 +21832,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -22250,19 +22250,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -22402,19 +22402,19 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -22491,19 +22491,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -22529,19 +22529,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -22567,19 +22567,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -23137,19 +23137,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -23260,10 +23260,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -23336,10 +23336,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -23403,7 +23403,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -23412,10 +23412,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -23441,19 +23441,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -23821,19 +23821,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -24239,19 +24239,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -24391,10 +24391,10 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -24480,16 +24480,16 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -24518,19 +24518,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -24556,19 +24556,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -24831,10 +24831,10 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11">
         <v>168</v>
@@ -25126,19 +25126,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -25249,10 +25249,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="F22">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -25325,10 +25325,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F24">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -25392,7 +25392,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -25401,10 +25401,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -25430,16 +25430,16 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -25810,19 +25810,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -26228,19 +26228,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -26380,19 +26380,19 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -26469,16 +26469,16 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -26507,19 +26507,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -26545,19 +26545,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -26820,10 +26820,10 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11">
         <v>168</v>
@@ -27115,19 +27115,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -27238,10 +27238,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="F22">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -27314,10 +27314,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F24">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -27381,7 +27381,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -27390,10 +27390,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -27419,16 +27419,16 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -27799,19 +27799,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -28217,19 +28217,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -28369,19 +28369,19 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -28458,19 +28458,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -28496,19 +28496,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -28534,19 +28534,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -29104,10 +29104,10 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -29227,10 +29227,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -29303,10 +29303,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -29370,7 +29370,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -29379,10 +29379,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -29408,16 +29408,16 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -29788,19 +29788,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -30206,19 +30206,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -30358,19 +30358,19 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="F52">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -30447,19 +30447,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -30485,19 +30485,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -30523,19 +30523,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -31093,19 +31093,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -31216,10 +31216,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -31283,19 +31283,19 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -31359,7 +31359,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -31368,10 +31368,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -31397,19 +31397,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -31777,19 +31777,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -32195,19 +32195,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -32347,10 +32347,10 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -32436,19 +32436,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -32474,19 +32474,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -32512,19 +32512,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -33082,19 +33082,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -33205,10 +33205,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -33281,10 +33281,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -33348,7 +33348,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -33357,10 +33357,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -33386,19 +33386,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -33766,19 +33766,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -34184,19 +34184,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -34336,10 +34336,10 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -34425,16 +34425,16 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -34463,19 +34463,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -34501,19 +34501,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -34776,10 +34776,10 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11">
         <v>168</v>
@@ -35071,19 +35071,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -35194,10 +35194,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="F22">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -35270,10 +35270,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F24">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -35337,7 +35337,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -35346,10 +35346,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -35375,16 +35375,16 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -35755,19 +35755,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -36173,19 +36173,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -36325,19 +36325,19 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -36414,19 +36414,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -36452,19 +36452,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -36490,19 +36490,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -36756,10 +36756,10 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>59</v>
@@ -37060,19 +37060,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -37183,10 +37183,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -37250,19 +37250,19 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -37326,7 +37326,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -37335,10 +37335,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -37364,19 +37364,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -37744,19 +37744,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -38162,19 +38162,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -38314,19 +38314,19 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -38403,19 +38403,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -38441,19 +38441,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -38479,19 +38479,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -39049,19 +39049,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -39172,10 +39172,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -39239,19 +39239,19 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -39315,7 +39315,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -39324,10 +39324,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -39353,19 +39353,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -39733,19 +39733,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -40151,19 +40151,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -40303,19 +40303,19 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -40392,19 +40392,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -40430,19 +40430,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -40468,19 +40468,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -41038,19 +41038,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -41161,10 +41161,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -41228,19 +41228,19 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -41304,7 +41304,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -41313,10 +41313,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -41342,19 +41342,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -41722,19 +41722,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -42140,19 +42140,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -42292,19 +42292,19 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -42381,19 +42381,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -42419,19 +42419,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -42457,19 +42457,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -43027,19 +43027,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -43150,10 +43150,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -43226,10 +43226,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -43293,7 +43293,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -43302,10 +43302,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -43331,19 +43331,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -43711,19 +43711,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -44129,19 +44129,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -44281,10 +44281,10 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -44370,19 +44370,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -44408,19 +44408,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -44446,19 +44446,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -45016,19 +45016,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -45139,10 +45139,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -45206,19 +45206,19 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -45282,7 +45282,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -45291,10 +45291,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -45320,19 +45320,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -45700,19 +45700,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -46118,19 +46118,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -46270,19 +46270,19 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -46359,19 +46359,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -46397,19 +46397,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -46435,19 +46435,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -47005,19 +47005,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -47128,10 +47128,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -47195,19 +47195,19 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -47271,7 +47271,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -47280,10 +47280,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -47309,19 +47309,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -47689,19 +47689,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -48107,19 +48107,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -48259,10 +48259,10 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -48348,19 +48348,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -48386,19 +48386,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -48424,19 +48424,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -48699,10 +48699,10 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>168</v>
@@ -48994,19 +48994,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -49117,10 +49117,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -49184,19 +49184,19 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -49260,7 +49260,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -49269,10 +49269,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -49298,19 +49298,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -49678,19 +49678,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -50096,19 +50096,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -50248,19 +50248,19 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -50337,19 +50337,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -50375,19 +50375,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -50413,19 +50413,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -50983,19 +50983,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -51106,10 +51106,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -51182,10 +51182,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -51249,7 +51249,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -51258,10 +51258,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -51287,19 +51287,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -51667,19 +51667,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -52085,19 +52085,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -52237,10 +52237,10 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -52249,7 +52249,7 @@
         <v>3</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -52326,7 +52326,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -52335,7 +52335,7 @@
         <v>34</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -52364,19 +52364,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -52402,19 +52402,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -52677,10 +52677,10 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G11">
         <v>168</v>
@@ -52981,10 +52981,10 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -53095,7 +53095,7 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F22">
         <v>12</v>
@@ -53171,7 +53171,7 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -53238,19 +53238,19 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -53276,7 +53276,7 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -53285,10 +53285,10 @@
         <v>9</v>
       </c>
       <c r="E27">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F27">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -53656,19 +53656,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F37">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -54235,10 +54235,10 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F52">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -54315,16 +54315,16 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -54353,19 +54353,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -54391,19 +54391,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -54666,10 +54666,10 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11">
         <v>168</v>
@@ -54961,19 +54961,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -55084,10 +55084,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="F22">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -55160,10 +55160,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F24">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -55227,7 +55227,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -55236,10 +55236,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -55265,16 +55265,16 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -55645,19 +55645,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -56063,19 +56063,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -56215,19 +56215,19 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -56304,16 +56304,16 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -56342,19 +56342,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -56380,19 +56380,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -56655,10 +56655,10 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11">
         <v>168</v>
@@ -56950,19 +56950,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -57073,10 +57073,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="F22">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -57149,10 +57149,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F24">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -57216,7 +57216,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -57225,10 +57225,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -57254,16 +57254,16 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -57634,19 +57634,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -58052,19 +58052,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -58204,19 +58204,19 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G52">
         <v>128</v>
@@ -58293,19 +58293,19 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>168</v>
@@ -58331,19 +58331,19 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G3">
         <v>168</v>
@@ -58369,19 +58369,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>44</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="G4">
         <v>126</v>
@@ -58939,19 +58939,19 @@
         <v>29</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -59062,10 +59062,10 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="G22">
         <v>142</v>
@@ -59138,10 +59138,10 @@
         <v>4</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="G24">
         <v>142</v>
@@ -59205,7 +59205,7 @@
         <v>36</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -59214,10 +59214,10 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="G26">
         <v>179</v>
@@ -59243,19 +59243,19 @@
         <v>37</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>132</v>
@@ -59623,19 +59623,19 @@
         <v>47</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>48</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>126</v>
@@ -60041,19 +60041,19 @@
         <v>58</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="G48">
         <v>128</v>
@@ -60193,19 +60193,19 @@
         <v>62</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="G52">
         <v>128</v>
